--- a/P11/Scrum_MICE_Sprint_5.xlsx
+++ b/P11/Scrum_MICE_Sprint_5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" state="visible" r:id="rId2"/>
@@ -1121,7 +1121,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1284,11 +1284,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="72748086"/>
-        <c:axId val="45020493"/>
+        <c:axId val="40824668"/>
+        <c:axId val="18709008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72748086"/>
+        <c:axId val="40824668"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1355,12 +1355,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45020493"/>
+        <c:crossAx val="18709008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45020493"/>
+        <c:axId val="18709008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1435,7 +1435,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72748086"/>
+        <c:crossAx val="40824668"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1462,7 +1462,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1625,11 +1625,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="44179178"/>
-        <c:axId val="52985468"/>
+        <c:axId val="69497508"/>
+        <c:axId val="39457110"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="44179178"/>
+        <c:axId val="69497508"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1696,12 +1696,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52985468"/>
+        <c:crossAx val="39457110"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52985468"/>
+        <c:axId val="39457110"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1776,7 +1776,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44179178"/>
+        <c:crossAx val="69497508"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1803,7 +1803,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1966,11 +1966,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="93774583"/>
-        <c:axId val="59373216"/>
+        <c:axId val="56860908"/>
+        <c:axId val="42215454"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93774583"/>
+        <c:axId val="56860908"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2037,12 +2037,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59373216"/>
+        <c:crossAx val="42215454"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59373216"/>
+        <c:axId val="42215454"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2117,7 +2117,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93774583"/>
+        <c:crossAx val="56860908"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2144,7 +2144,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2277,11 +2277,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="57512907"/>
-        <c:axId val="89298503"/>
+        <c:axId val="36507280"/>
+        <c:axId val="5061577"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="57512907"/>
+        <c:axId val="36507280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2346,7 +2346,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89298503"/>
+        <c:crossAx val="5061577"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2354,7 +2354,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89298503"/>
+        <c:axId val="5061577"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2428,7 +2428,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57512907"/>
+        <c:crossAx val="36507280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2455,7 +2455,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2588,11 +2588,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="49045013"/>
-        <c:axId val="82976320"/>
+        <c:axId val="13538841"/>
+        <c:axId val="87703709"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49045013"/>
+        <c:axId val="13538841"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2657,7 +2657,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82976320"/>
+        <c:crossAx val="87703709"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2665,7 +2665,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82976320"/>
+        <c:axId val="87703709"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2739,7 +2739,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49045013"/>
+        <c:crossAx val="13538841"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2766,7 +2766,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2899,11 +2899,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="11431118"/>
-        <c:axId val="5527729"/>
+        <c:axId val="43095259"/>
+        <c:axId val="76838562"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="11431118"/>
+        <c:axId val="43095259"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2968,7 +2968,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5527729"/>
+        <c:crossAx val="76838562"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2976,7 +2976,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="5527729"/>
+        <c:axId val="76838562"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3050,7 +3050,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11431118"/>
+        <c:crossAx val="43095259"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3077,7 +3077,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3210,11 +3210,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="59272428"/>
-        <c:axId val="78465065"/>
+        <c:axId val="30913322"/>
+        <c:axId val="30919258"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59272428"/>
+        <c:axId val="30913322"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3279,7 +3279,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78465065"/>
+        <c:crossAx val="30919258"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3287,7 +3287,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78465065"/>
+        <c:axId val="30919258"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3361,7 +3361,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59272428"/>
+        <c:crossAx val="30913322"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3388,7 +3388,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3521,11 +3521,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="43984301"/>
-        <c:axId val="42135011"/>
+        <c:axId val="95250732"/>
+        <c:axId val="2372759"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43984301"/>
+        <c:axId val="95250732"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3590,7 +3590,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42135011"/>
+        <c:crossAx val="2372759"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3598,7 +3598,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42135011"/>
+        <c:axId val="2372759"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3672,7 +3672,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43984301"/>
+        <c:crossAx val="95250732"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3699,7 +3699,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3832,11 +3832,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="83417726"/>
-        <c:axId val="98041484"/>
+        <c:axId val="43286657"/>
+        <c:axId val="57959717"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83417726"/>
+        <c:axId val="43286657"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3901,7 +3901,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98041484"/>
+        <c:crossAx val="57959717"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3909,7 +3909,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98041484"/>
+        <c:axId val="57959717"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3983,7 +3983,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83417726"/>
+        <c:crossAx val="43286657"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4323,7 +4323,7 @@
   </sheetPr>
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G37" activeCellId="0" sqref="G37"/>
     </sheetView>
   </sheetViews>
@@ -10323,7 +10323,7 @@
   </sheetPr>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
